--- a/Personal/VickyToDoList.xlsx
+++ b/Personal/VickyToDoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\notes\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73843AC2-F266-4B6E-A2E8-0D5EFDB89D1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D676186B-C6B0-4A24-899A-8B9BA91EE962}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24360" windowHeight="10140" xr2:uid="{25EBC7CF-5E74-415B-9785-3B9C9F8AF7A1}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="2月份" sheetId="4" r:id="rId1"/>
     <sheet name="1月份" sheetId="1" r:id="rId2"/>
     <sheet name="2021" sheetId="2" r:id="rId3"/>
+    <sheet name="EnglishCourse" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2489,15 +2490,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>284101</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>56401</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1419528</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2520,8 +2521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6010275"/>
-          <a:ext cx="13190476" cy="5990476"/>
+          <a:off x="57150" y="5657851"/>
+          <a:ext cx="9144303" cy="4152900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2532,23 +2533,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>893952</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>170488</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC4F921-AD4D-4AC7-B9BA-FB28C7C077B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3532229E-8102-4DF2-A8E1-AC5364C7016B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,16 +2557,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="-1" r="73" b="1752"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="12201525"/>
-          <a:ext cx="11180952" cy="7695238"/>
+          <a:off x="9610724" y="5562599"/>
+          <a:ext cx="8334376" cy="5131027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2582,15 +2582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>1133476</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2612,7 +2612,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5962650"/>
+          <a:off x="57150" y="5743575"/>
           <a:ext cx="11439526" cy="3876675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2663,6 +2663,55 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B657C6-CB57-4D99-9050-859EDEEB1E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819651" y="95250"/>
+          <a:ext cx="6724649" cy="9512125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2967,9 +3016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5136187-C096-40E9-96F9-3E31A6169433}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="topRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2990,7 +3039,7 @@
     <col min="14" max="14" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>127</v>
       </c>
@@ -4097,7 +4146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99D840F-4AA2-40BF-8CBA-14334688991A}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K58" sqref="K58"/>
     </sheetView>
@@ -6296,4 +6345,20 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C60EAB0-ADDB-46F5-9CCB-23565C56BFF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X48" sqref="X48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>